--- a/Assn1/Login, Logout requirements.xlsx
+++ b/Assn1/Login, Logout requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2770\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Documents\GitHub\Quinterac\Assn1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1545" documentId="8_{0B647C0E-3B5B-4B01-B313-FD4C9CFC0A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55F4D380-FDBE-452A-BBB4-4F52FA44C003}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DD26E-5DFB-4D6D-8686-C725B722D4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="5" xr2:uid="{25706941-1A77-4797-89F7-A246F04E3FD2}"/>
+    <workbookView xWindow="4344" yWindow="1068" windowWidth="17280" windowHeight="9420" xr2:uid="{25706941-1A77-4797-89F7-A246F04E3FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login, Logout" sheetId="1" r:id="rId1"/>
@@ -2479,23 +2479,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419CD781-0520-4144-A52A-74605508ACD9}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="84" t="s">
         <v>111</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="85"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -2571,7 +2571,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="85"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
@@ -2595,7 +2595,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="85"/>
       <c r="B5" s="6" t="s">
         <v>15</v>
@@ -2619,7 +2619,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="85"/>
       <c r="B6" s="6" t="s">
         <v>18</v>
@@ -2643,7 +2643,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
       <c r="B7" s="20" t="s">
         <v>21</v>
@@ -2667,7 +2667,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86"/>
       <c r="B8" s="17" t="s">
         <v>70</v>
@@ -2691,7 +2691,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>112</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="33" t="s">
         <v>108</v>
@@ -2741,7 +2741,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="34.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="87" t="s">
         <v>36</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="34.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="88"/>
       <c r="B12" s="16" t="s">
         <v>34</v>
@@ -2791,7 +2791,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
         <v>45</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="82"/>
       <c r="B14" s="7" t="s">
         <v>41</v>
@@ -2841,7 +2841,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="82"/>
       <c r="B15" s="7" t="s">
         <v>42</v>
@@ -2865,7 +2865,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="82"/>
       <c r="B16" s="7" t="s">
         <v>43</v>
@@ -2889,7 +2889,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="83"/>
       <c r="B17" s="10" t="s">
         <v>44</v>
@@ -2913,7 +2913,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>57</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="82"/>
       <c r="B19" s="12" t="s">
         <v>59</v>
@@ -2963,7 +2963,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="82"/>
       <c r="B20" s="12" t="s">
         <v>64</v>
@@ -2987,7 +2987,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="82"/>
       <c r="B21" s="15" t="s">
         <v>65</v>
@@ -3011,7 +3011,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="83"/>
       <c r="B22" s="10" t="s">
         <v>66</v>
@@ -3035,7 +3035,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="89" t="s">
         <v>90</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="90"/>
       <c r="B24" s="32" t="s">
         <v>93</v>
@@ -3085,7 +3085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A13:A17"/>
@@ -3109,14 +3109,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="8" max="8" width="23" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="22.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>99</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="70" t="s">
         <v>273</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="93"/>
       <c r="B4" s="70" t="s">
         <v>274</v>
@@ -3217,7 +3217,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="70" t="s">
         <v>275</v>
@@ -3241,7 +3241,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="94"/>
       <c r="B6" s="76" t="s">
         <v>276</v>
@@ -3265,7 +3265,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="40.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>165</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="93"/>
       <c r="B8" s="70" t="s">
         <v>278</v>
@@ -3315,7 +3315,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="70" t="s">
         <v>279</v>
@@ -3339,7 +3339,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="94"/>
       <c r="B10" s="76" t="s">
         <v>280</v>
@@ -3363,7 +3363,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="73" t="s">
         <v>133</v>
       </c>
@@ -3406,17 +3406,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>200</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
       <c r="B3" s="70" t="s">
         <v>283</v>
@@ -3492,7 +3492,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="93"/>
       <c r="B4" s="70" t="s">
         <v>284</v>
@@ -3516,7 +3516,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="93"/>
       <c r="B5" s="70" t="s">
         <v>285</v>
@@ -3540,7 +3540,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="94"/>
       <c r="B6" s="38" t="s">
         <v>286</v>
@@ -3564,7 +3564,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="95" t="s">
         <v>208</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="93"/>
       <c r="B8" s="70" t="s">
         <v>288</v>
@@ -3614,7 +3614,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
       <c r="B9" s="70" t="s">
         <v>289</v>
@@ -3638,7 +3638,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="94"/>
       <c r="B10" s="38" t="s">
         <v>290</v>
@@ -3662,7 +3662,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="73" t="s">
         <v>203</v>
       </c>
@@ -3705,18 +3705,18 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
         <v>147</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="96"/>
       <c r="B3" s="70" t="s">
         <v>293</v>
@@ -3792,7 +3792,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="96"/>
       <c r="B4" s="70" t="s">
         <v>294</v>
@@ -3816,7 +3816,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="96"/>
       <c r="B5" s="70" t="s">
         <v>295</v>
@@ -3840,7 +3840,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97"/>
       <c r="B6" s="76" t="s">
         <v>296</v>
@@ -3864,7 +3864,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="95" t="s">
         <v>182</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="93"/>
       <c r="B8" s="70" t="s">
         <v>298</v>
@@ -3914,7 +3914,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="93"/>
       <c r="B9" s="70" t="s">
         <v>299</v>
@@ -3938,7 +3938,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="93"/>
       <c r="B10" s="70" t="s">
         <v>300</v>
@@ -3962,7 +3962,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="94"/>
       <c r="B11" s="76" t="s">
         <v>301</v>
@@ -3986,7 +3986,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
         <v>188</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
       <c r="B13" s="70" t="s">
         <v>303</v>
@@ -4036,7 +4036,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
       <c r="B14" s="70" t="s">
         <v>304</v>
@@ -4060,7 +4060,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="100"/>
       <c r="B15" s="38" t="s">
         <v>305</v>
@@ -4084,7 +4084,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="73" t="s">
         <v>150</v>
       </c>
@@ -4128,18 +4128,18 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>132</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="102"/>
       <c r="B3" s="6" t="s">
         <v>308</v>
@@ -4215,7 +4215,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="102"/>
       <c r="B4" s="6" t="s">
         <v>309</v>
@@ -4239,7 +4239,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="102"/>
       <c r="B5" s="6" t="s">
         <v>310</v>
@@ -4263,7 +4263,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="102"/>
       <c r="B6" s="32" t="s">
         <v>311</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="I6" s="54"/>
     </row>
-    <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>136</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="102"/>
       <c r="B8" s="6" t="s">
         <v>313</v>
@@ -4338,7 +4338,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="102"/>
       <c r="B9" s="20" t="s">
         <v>314</v>
@@ -4362,7 +4362,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="62.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="62.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="36" t="s">
         <v>315</v>
@@ -4386,7 +4386,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>137</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -4422,7 +4422,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -4431,14 +4431,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4459,24 +4459,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18409AD2-D17F-4D42-AA36-D18A7E9DA399}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="16384" max="16384" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="16384" max="16384" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="29.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101" t="s">
         <v>132</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="82"/>
       <c r="B3" s="6" t="s">
         <v>318</v>
@@ -4552,7 +4552,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
         <v>319</v>
@@ -4576,7 +4576,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="82"/>
       <c r="B5" s="6" t="s">
         <v>320</v>
@@ -4600,7 +4600,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="83"/>
       <c r="B6" s="32" t="s">
         <v>321</v>
@@ -4624,7 +4624,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>136</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="102"/>
       <c r="B8" s="51" t="s">
         <v>323</v>
@@ -4674,7 +4674,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="102"/>
       <c r="B9" s="20" t="s">
         <v>324</v>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="91"/>
       <c r="B10" s="36" t="s">
         <v>325</v>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31" t="s">
         <v>139</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
@@ -4760,7 +4760,7 @@
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -4770,7 +4770,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -4780,7 +4780,7 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -4790,7 +4790,7 @@
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -4800,7 +4800,7 @@
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -4810,7 +4810,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -4820,7 +4820,7 @@
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -4830,7 +4830,7 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -4840,7 +4840,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -4850,7 +4850,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -4860,7 +4860,7 @@
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -4870,7 +4870,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>

--- a/Assn1/Login, Logout requirements.xlsx
+++ b/Assn1/Login, Logout requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adams\Documents\GitHub\Quinterac\Assn1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2770\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DD26E-5DFB-4D6D-8686-C725B722D4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16317168-3DC9-4AF7-82D7-EEA2727AEFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4344" yWindow="1068" windowWidth="17280" windowHeight="9420" xr2:uid="{25706941-1A77-4797-89F7-A246F04E3FD2}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="5" activeTab="5" xr2:uid="{25706941-1A77-4797-89F7-A246F04E3FD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login, Logout" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="CreateAcct" sheetId="4" r:id="rId5"/>
     <sheet name="DeleteAcct" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="330">
+  <si>
+    <t>Requirements</t>
+  </si>
   <si>
     <t>Test No.</t>
   </si>
@@ -47,6 +50,9 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>Inputs</t>
+  </si>
+  <si>
     <t>Input Files</t>
   </si>
   <si>
@@ -56,24 +62,42 @@
     <t>Output Files</t>
   </si>
   <si>
+    <t>Only accept login transaction before login</t>
+  </si>
+  <si>
     <t>R1T1</t>
   </si>
   <si>
+    <t>Idle logout</t>
+  </si>
+  <si>
+    <t>can't logout before login</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>valid account list file w/ no accounts</t>
+  </si>
+  <si>
+    <t>error, prompt user login</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>R1T2</t>
   </si>
   <si>
     <t>Idle createacct</t>
   </si>
   <si>
-    <t>Idle logout</t>
-  </si>
-  <si>
-    <t>can't logout before login</t>
-  </si>
-  <si>
     <t>can't createacct before login</t>
   </si>
   <si>
+    <t>createacct</t>
+  </si>
+  <si>
     <t>R1T3</t>
   </si>
   <si>
@@ -83,6 +107,9 @@
     <t>can't deleteacct before login</t>
   </si>
   <si>
+    <t>deleteacct</t>
+  </si>
+  <si>
     <t>R1T4</t>
   </si>
   <si>
@@ -92,6 +119,9 @@
     <t>can't deposit before login</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>R1T5</t>
   </si>
   <si>
@@ -101,6 +131,9 @@
     <t>can't withdraw before login</t>
   </si>
   <si>
+    <t>withdraw</t>
+  </si>
+  <si>
     <t>R1T6</t>
   </si>
   <si>
@@ -110,319 +143,361 @@
     <t>can't transfer before login</t>
   </si>
   <si>
-    <t>logout</t>
-  </si>
-  <si>
-    <t>createacct</t>
-  </si>
-  <si>
-    <t>deleteacct</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>withdraw</t>
-  </si>
-  <si>
     <t>transfer</t>
   </si>
   <si>
-    <t>error, prompt user login</t>
+    <t>R1T7</t>
+  </si>
+  <si>
+    <t>Idle Random Input</t>
+  </si>
+  <si>
+    <t>must enter valid transaction</t>
+  </si>
+  <si>
+    <t>asdfasdfjasdfj</t>
+  </si>
+  <si>
+    <t>No login transaction allowed, after login</t>
   </si>
   <si>
     <t>R2T1</t>
   </si>
   <si>
+    <t xml:space="preserve">login, login case </t>
+  </si>
+  <si>
     <t>can't login after login</t>
   </si>
   <si>
+    <t>login, atm, login</t>
+  </si>
+  <si>
+    <t>error, prompt user for transaction</t>
+  </si>
+  <si>
+    <t>R2T2</t>
+  </si>
+  <si>
+    <t>login, Random Input</t>
+  </si>
+  <si>
+    <t>login, atm, asdfasdfasd</t>
+  </si>
+  <si>
+    <t>Check Login accepted</t>
+  </si>
+  <si>
     <t>R3T1</t>
   </si>
   <si>
+    <t>login, atm case</t>
+  </si>
+  <si>
+    <t>check for normal login accept with atm</t>
+  </si>
+  <si>
+    <t>login, atm,</t>
+  </si>
+  <si>
+    <t>prompt user for next transaction</t>
+  </si>
+  <si>
     <t>R3T2</t>
   </si>
   <si>
-    <t>login, atm, login</t>
-  </si>
-  <si>
-    <t>Check Login accepted</t>
-  </si>
-  <si>
-    <t>error, prompt user for transaction</t>
-  </si>
-  <si>
-    <t>login, atm case</t>
+    <t>login, agent case</t>
+  </si>
+  <si>
+    <t>check for normal login accept with agent</t>
+  </si>
+  <si>
+    <t>login, agent,</t>
+  </si>
+  <si>
+    <t>Only allow unprivileged transactions for atm user</t>
+  </si>
+  <si>
+    <t>R4T1</t>
+  </si>
+  <si>
+    <t>atm user, deposit case</t>
+  </si>
+  <si>
+    <t>check for unprivileged transaction accept</t>
+  </si>
+  <si>
+    <t>login, atm, deposit</t>
+  </si>
+  <si>
+    <t>valid account list file w/ accounts</t>
+  </si>
+  <si>
+    <t>prompt user to enter account number</t>
+  </si>
+  <si>
+    <t>R4T2</t>
+  </si>
+  <si>
+    <t>atm user, withdraw case</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw</t>
+  </si>
+  <si>
+    <t>R4T3</t>
+  </si>
+  <si>
+    <t>atm user, transfer case</t>
+  </si>
+  <si>
+    <t>login, atm, transfer</t>
+  </si>
+  <si>
+    <t>R4T4</t>
+  </si>
+  <si>
+    <t>atm user, createacct denied</t>
+  </si>
+  <si>
+    <t>can't createacct for atm user</t>
+  </si>
+  <si>
+    <t>login, atm, createacct</t>
+  </si>
+  <si>
+    <t>error, prompt user for unprivileged transaction</t>
+  </si>
+  <si>
+    <t>R4T5</t>
+  </si>
+  <si>
+    <t>atm user, deleteacct denied</t>
+  </si>
+  <si>
+    <t>can't deleteacct for atm user</t>
+  </si>
+  <si>
+    <t>login, atm, deleteacct</t>
+  </si>
+  <si>
+    <t>Check privileged transactions for agent user</t>
+  </si>
+  <si>
+    <t>R5T1</t>
+  </si>
+  <si>
+    <t>agent user, createacct case</t>
+  </si>
+  <si>
+    <t>check for privileged transcation accept</t>
+  </si>
+  <si>
+    <t>login, agent, createacct</t>
+  </si>
+  <si>
+    <t>valid accounts file w/ accounts</t>
+  </si>
+  <si>
+    <t>R5T2</t>
+  </si>
+  <si>
+    <t>agent user, deleteacct case</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct</t>
+  </si>
+  <si>
+    <t>R5T3</t>
+  </si>
+  <si>
+    <t>agent user, deposit case</t>
+  </si>
+  <si>
+    <t>login, agent, deposit</t>
+  </si>
+  <si>
+    <t>R5T4</t>
+  </si>
+  <si>
+    <t>agent user, withdraw case</t>
+  </si>
+  <si>
+    <t>login, agent, withdraw</t>
+  </si>
+  <si>
+    <t>R5T5</t>
+  </si>
+  <si>
+    <t>agent user, transfer case</t>
+  </si>
+  <si>
+    <t>login, agent, transfer</t>
+  </si>
+  <si>
+    <t>prompt use to enter account number</t>
+  </si>
+  <si>
+    <t>Check Logout accepted</t>
+  </si>
+  <si>
+    <t>R6T1</t>
+  </si>
+  <si>
+    <t>logout, atm case</t>
+  </si>
+  <si>
+    <t>check for atm logout accept</t>
+  </si>
+  <si>
+    <t>login, atm, logout</t>
+  </si>
+  <si>
+    <t>none or prompt user to login</t>
   </si>
   <si>
     <t>transaction summary file w/ no transactions</t>
   </si>
   <si>
-    <t>R4T1</t>
-  </si>
-  <si>
-    <t>R4T2</t>
-  </si>
-  <si>
-    <t>R4T3</t>
-  </si>
-  <si>
-    <t>R4T4</t>
-  </si>
-  <si>
-    <t>R4T5</t>
-  </si>
-  <si>
-    <t>Only allow unprivileged transactions for atm user</t>
-  </si>
-  <si>
-    <t>valid accounts file w/ accounts</t>
-  </si>
-  <si>
-    <t>login, atm, createacct</t>
-  </si>
-  <si>
-    <t>atm user, createacct denied</t>
-  </si>
-  <si>
-    <t>atm user, deleteacct denied</t>
-  </si>
-  <si>
-    <t>can't createacct for atm user</t>
-  </si>
-  <si>
-    <t>can't deleteacct for atm user</t>
-  </si>
-  <si>
-    <t>login, atm, deleteacct</t>
-  </si>
-  <si>
-    <t>atm user, deposit case</t>
-  </si>
-  <si>
-    <t>atm user, withdraw case</t>
-  </si>
-  <si>
-    <t>atm user, transfer case</t>
-  </si>
-  <si>
-    <t>check for unprivileged transaction accept</t>
-  </si>
-  <si>
-    <t>Check privileged transactions for agent user</t>
-  </si>
-  <si>
-    <t>R5T1</t>
-  </si>
-  <si>
-    <t>R5T2</t>
-  </si>
-  <si>
-    <t>agent user, createacct case</t>
-  </si>
-  <si>
-    <t>check for privileged transcation accept</t>
-  </si>
-  <si>
-    <t>agent user, deleteacct case</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>R5T3</t>
-  </si>
-  <si>
-    <t>R5T4</t>
-  </si>
-  <si>
-    <t>R5T5</t>
-  </si>
-  <si>
-    <t>agent user, deposit case</t>
-  </si>
-  <si>
-    <t>agent user, withdraw case</t>
-  </si>
-  <si>
-    <t>agent user, transfer case</t>
-  </si>
-  <si>
-    <t>R1T7</t>
-  </si>
-  <si>
-    <t>Idle Random Input</t>
-  </si>
-  <si>
-    <t>must enter valid transaction</t>
-  </si>
-  <si>
-    <t>asdfasdfjasdfj</t>
-  </si>
-  <si>
-    <t>login, atm, deposit</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw</t>
-  </si>
-  <si>
-    <t>login, atm, transfer</t>
-  </si>
-  <si>
-    <t>login, agent, createacct</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct</t>
-  </si>
-  <si>
-    <t>login, agent, deposit</t>
-  </si>
-  <si>
-    <t>login, agent, withdraw</t>
-  </si>
-  <si>
-    <t>login, agent, transfer</t>
-  </si>
-  <si>
-    <t>login, agent case</t>
-  </si>
-  <si>
-    <t>check for normal login accept with atm</t>
-  </si>
-  <si>
-    <t>check for normal login accept with agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">login, login case </t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>error, prompt user for unprivileged transaction</t>
-  </si>
-  <si>
-    <t>login, atm,</t>
-  </si>
-  <si>
-    <t>login, agent,</t>
-  </si>
-  <si>
-    <t>Check Logout accepted</t>
-  </si>
-  <si>
-    <t>R6T1</t>
-  </si>
-  <si>
-    <t>logout, atm case</t>
-  </si>
-  <si>
     <t>R6T2</t>
   </si>
   <si>
     <t>logout, agent case</t>
   </si>
   <si>
-    <t>check for atm logout accept</t>
-  </si>
-  <si>
     <t>check for agent logout accept</t>
   </si>
   <si>
-    <t>login, atm, logout</t>
-  </si>
-  <si>
     <t>login, agent, logout</t>
   </si>
   <si>
     <t>only accept 7 digit account number after deposit</t>
   </si>
   <si>
-    <t>valid account list file w/ no accounts</t>
-  </si>
-  <si>
-    <t>valid account list file w/ accounts</t>
+    <t>R7T1</t>
+  </si>
+  <si>
+    <t>deposit non-numerical account</t>
+  </si>
+  <si>
+    <t>deny non-numeric inputs</t>
+  </si>
+  <si>
+    <t>login,atm,deposit, qu3en$</t>
+  </si>
+  <si>
+    <t>valid account list file w/ account numbers</t>
+  </si>
+  <si>
+    <t>error message, can only enter numeric digits for account</t>
+  </si>
+  <si>
+    <t>R7T2</t>
+  </si>
+  <si>
+    <t>deposit account that begins with 0</t>
+  </si>
+  <si>
+    <t>deny any account number that begins with 0</t>
+  </si>
+  <si>
+    <t>login,atm,deposit,0100327</t>
+  </si>
+  <si>
+    <t>error message, first digit cannot be 0</t>
+  </si>
+  <si>
+    <t>R7T3</t>
+  </si>
+  <si>
+    <t>deposit invalid account digits</t>
+  </si>
+  <si>
+    <t>deny anything that does not have 7 digits</t>
+  </si>
+  <si>
+    <t>login,atm,deposit, 100327</t>
+  </si>
+  <si>
+    <t>error message, numeric value can only have 7 digits</t>
+  </si>
+  <si>
+    <t>R7T4</t>
+  </si>
+  <si>
+    <t>deposit invalid account case</t>
+  </si>
+  <si>
+    <t>deny invalid account number</t>
+  </si>
+  <si>
+    <t>login,atm,deposit,1000427</t>
+  </si>
+  <si>
+    <t>error message, account does not exist</t>
+  </si>
+  <si>
+    <t>R7T5</t>
   </si>
   <si>
     <t>deposit valid account case</t>
   </si>
   <si>
+    <t>accepting a valid account number</t>
+  </si>
+  <si>
+    <t>login,atm,deposit,1000327</t>
+  </si>
+  <si>
     <t>prompt user to enter amount to deposit in cents</t>
   </si>
   <si>
-    <t>deposit invalid account case</t>
-  </si>
-  <si>
-    <t>deny invalid account number</t>
-  </si>
-  <si>
-    <t>accepting a valid account number</t>
-  </si>
-  <si>
-    <t>deposit invalid account digits</t>
-  </si>
-  <si>
-    <t>R2T2</t>
-  </si>
-  <si>
-    <t>login, Random Input</t>
-  </si>
-  <si>
-    <t>login, atm, asdfasdfasd</t>
-  </si>
-  <si>
-    <t>Only accept login transaction before login</t>
-  </si>
-  <si>
-    <t>No login transaction allowed, after login</t>
-  </si>
-  <si>
-    <t>deny anything that does not have 7 digits</t>
-  </si>
-  <si>
-    <t>error message, account does not exist</t>
-  </si>
-  <si>
-    <t>valid account list file w/ account numbers</t>
-  </si>
-  <si>
-    <t>error message, numeric value can only have 7 digits</t>
-  </si>
-  <si>
-    <t>deny non-numeric inputs</t>
-  </si>
-  <si>
-    <t>deny any account number that begins with 0</t>
-  </si>
-  <si>
-    <t>error message, first digit cannot be 0</t>
-  </si>
-  <si>
-    <t>deposit non-numerical account</t>
-  </si>
-  <si>
-    <t>error message, can only enter numeric digits for account</t>
+    <t>only deposit monetary amounts between 3 to 8 digits after valid account number</t>
+  </si>
+  <si>
+    <t>R8T1</t>
+  </si>
+  <si>
+    <t>deposit non-numerical amount</t>
+  </si>
+  <si>
+    <t>deny non-numeric amount</t>
+  </si>
+  <si>
+    <t>login,atm,deposit,1000327,que3n$</t>
   </si>
   <si>
     <t>error message, can only enter numeric digits for amount</t>
   </si>
   <si>
-    <t>deny non-numeric amount</t>
+    <t>R8T2</t>
   </si>
   <si>
     <t>deposit amount below 3</t>
   </si>
   <si>
+    <t>deny amount that is below 3 digits</t>
+  </si>
+  <si>
+    <t>login,atm,deposit,1000327,98</t>
+  </si>
+  <si>
+    <t>error message, numeric amount can only have 3 to 8 digits</t>
+  </si>
+  <si>
+    <t>R8T3</t>
+  </si>
+  <si>
     <t>deposit amount above 8</t>
   </si>
   <si>
-    <t>deny amount that is below 3 digits</t>
-  </si>
-  <si>
     <t>deny amount that is above 8 digits</t>
   </si>
   <si>
-    <t>error message, numeric amount can only have 3 to 8 digits</t>
+    <t>login,atm,deposit,1000327,987654321</t>
+  </si>
+  <si>
+    <t>R8T4</t>
   </si>
   <si>
     <t>deposit valid amount case</t>
@@ -431,605 +506,533 @@
     <t>acceptting a valid amount</t>
   </si>
   <si>
-    <t>prompt user for next transaction</t>
+    <t>login,atm,,deposit,1000327,101</t>
+  </si>
+  <si>
+    <t>accept valid deposit transaction session</t>
+  </si>
+  <si>
+    <t>R9T1</t>
+  </si>
+  <si>
+    <t>accept deposit session</t>
+  </si>
+  <si>
+    <t>aceppting a valid deposit transaction session</t>
+  </si>
+  <si>
+    <t>login,atm,deposit,1000327,101,logout</t>
+  </si>
+  <si>
+    <t>please login!</t>
+  </si>
+  <si>
+    <t>transaction summary file w/ new transaction</t>
+  </si>
+  <si>
+    <t>only accept 7 digit account number after withdraw,</t>
+  </si>
+  <si>
+    <t>R10T1</t>
+  </si>
+  <si>
+    <t>withdraw, non-numerical account</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, qu3en$</t>
+  </si>
+  <si>
+    <t>R10T2</t>
+  </si>
+  <si>
+    <t>withdraw, account that begins with 0</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 0100327</t>
+  </si>
+  <si>
+    <t>R10T3</t>
+  </si>
+  <si>
+    <t>withdraw, invalid account digits</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 100327</t>
+  </si>
+  <si>
+    <t>R10T4</t>
+  </si>
+  <si>
+    <t>withdraw, invalid account case</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000427</t>
+  </si>
+  <si>
+    <t>R10T5</t>
+  </si>
+  <si>
+    <t>withdraw, valid account case</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000327</t>
+  </si>
+  <si>
+    <t>prompt user to enter amount to withdraw, in cents</t>
+  </si>
+  <si>
+    <t>only withdraw, monetary amounts between 3 to 8 digits after valid account number</t>
+  </si>
+  <si>
+    <t>R11T1</t>
+  </si>
+  <si>
+    <t>withdraw, non-numerical amount</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000327, que3n$</t>
+  </si>
+  <si>
+    <t>R11T2</t>
+  </si>
+  <si>
+    <t>withdraw, amount below 3</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000327, 98</t>
+  </si>
+  <si>
+    <t>R11T3</t>
+  </si>
+  <si>
+    <t>withdraw, amount above 8</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000327, 987654321</t>
+  </si>
+  <si>
+    <t>R11T4</t>
+  </si>
+  <si>
+    <t>withdraw, valid amount case</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000327, 101</t>
+  </si>
+  <si>
+    <t>accept valid withdraw, transaction session</t>
+  </si>
+  <si>
+    <t>R12T1</t>
+  </si>
+  <si>
+    <t>accept withdraw, session</t>
+  </si>
+  <si>
+    <t>aceppting a valid withdraw, transaction session</t>
+  </si>
+  <si>
+    <t>login, atm, withdraw, 1000327, 101, logout</t>
+  </si>
+  <si>
+    <t>only accept 7 digit account number after transfer</t>
+  </si>
+  <si>
+    <t>R13T1</t>
+  </si>
+  <si>
+    <t>transfer non-numerical account1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deny non-numeric inputs </t>
+  </si>
+  <si>
+    <t>login, atm, transfer, qu3en$</t>
+  </si>
+  <si>
+    <t>R13T2</t>
+  </si>
+  <si>
+    <t>transfer account1 that begins with 0</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 0100327</t>
+  </si>
+  <si>
+    <t>R13T3</t>
+  </si>
+  <si>
+    <t>transfer invalid account1 digits</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 100327</t>
+  </si>
+  <si>
+    <t>R13T4</t>
+  </si>
+  <si>
+    <t>transfer invalid account1 case</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000427</t>
+  </si>
+  <si>
+    <t>R13T5</t>
+  </si>
+  <si>
+    <t>transfer valid account1 case</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327</t>
+  </si>
+  <si>
+    <t>prompt user to enter amount to transfer in cents</t>
+  </si>
+  <si>
+    <t>only accept 7 digit account number after first account successfully inputted</t>
+  </si>
+  <si>
+    <t>R14T1</t>
+  </si>
+  <si>
+    <t>transfer non-numerical account2</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, qu3en$</t>
+  </si>
+  <si>
+    <t>R14T2</t>
+  </si>
+  <si>
+    <t>transfer account2 that begins with 0</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 0100327</t>
+  </si>
+  <si>
+    <t>R14T3</t>
+  </si>
+  <si>
+    <t>transfer invalid account2 digits</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 100327</t>
+  </si>
+  <si>
+    <t>R14T4</t>
+  </si>
+  <si>
+    <t>transfer invalid account2 case</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000427</t>
+  </si>
+  <si>
+    <t>R14T5</t>
+  </si>
+  <si>
+    <t>transfer valid account2 case</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000328</t>
+  </si>
+  <si>
+    <t>only transfer monetary amounts between 3 to 8 digits after first 2 accounts are successfully inputted</t>
+  </si>
+  <si>
+    <t>R15T1</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000328, que3n$</t>
+  </si>
+  <si>
+    <t>R15T2</t>
+  </si>
+  <si>
+    <t>transfer amount below 3</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000328, 98</t>
+  </si>
+  <si>
+    <t>R15T3</t>
+  </si>
+  <si>
+    <t>transfer amount above 8</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000328, 987654321</t>
+  </si>
+  <si>
+    <t>R15T4</t>
+  </si>
+  <si>
+    <t>transfer valid amount case</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000328, 101</t>
+  </si>
+  <si>
+    <t>accept valid transfer transaction session</t>
+  </si>
+  <si>
+    <t>R16T1</t>
+  </si>
+  <si>
+    <t>accept transfer session</t>
+  </si>
+  <si>
+    <t>aceppting a valid transfer transaction session</t>
+  </si>
+  <si>
+    <t>login, atm, transfer, 1000327, 1000328, 101, logout</t>
+  </si>
+  <si>
+    <t>transaction summary file w/ new transation</t>
   </si>
   <si>
     <t>Only accept seven digit account number</t>
   </si>
   <si>
-    <t>accept valid deposit transaction session</t>
-  </si>
-  <si>
-    <t>accept deposit session</t>
-  </si>
-  <si>
-    <t>aceppting a valid deposit transaction session</t>
+    <t>R17T1</t>
+  </si>
+  <si>
+    <t>create with non-numerical values</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, qu3en$</t>
+  </si>
+  <si>
+    <t>R17T2</t>
+  </si>
+  <si>
+    <t>create with account number beigns with 0</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 0100329</t>
+  </si>
+  <si>
+    <t>R17T3</t>
+  </si>
+  <si>
+    <t>create with invalid account digits</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 100329</t>
+  </si>
+  <si>
+    <t>R17T4</t>
+  </si>
+  <si>
+    <t>create using existing account number</t>
+  </si>
+  <si>
+    <t>deny any account number that already exists</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000327</t>
+  </si>
+  <si>
+    <t>error message, account already exists</t>
+  </si>
+  <si>
+    <t>R17T5</t>
+  </si>
+  <si>
+    <t>create with valid account case</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000329</t>
+  </si>
+  <si>
+    <t>prompt user to enter desired Account Name</t>
   </si>
   <si>
     <t>Account name between 3 and 30 alphanumeric characters</t>
   </si>
   <si>
+    <t>R18T1</t>
+  </si>
+  <si>
+    <t>Low Character Range test</t>
+  </si>
+  <si>
+    <t>Test values from 0 to 2 characters</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000329, my</t>
+  </si>
+  <si>
+    <t>error message, can only enter alphanumeric values 3 to 30 characters</t>
+  </si>
+  <si>
+    <t>R18T2</t>
+  </si>
+  <si>
+    <t>Acceptable Character Range test</t>
+  </si>
+  <si>
+    <t>Test values from 3 to 30 characters</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000329, Acc123</t>
+  </si>
+  <si>
+    <t>R18T3</t>
+  </si>
+  <si>
+    <t>High Character Range test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test values over 30 characters </t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000329, myAccountNameIsWayTooLong123456789</t>
+  </si>
+  <si>
+    <t>R18T4</t>
+  </si>
+  <si>
+    <t>Illegal Values test</t>
+  </si>
+  <si>
+    <t>Deny non-alphanumeric symbols</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000329, qu3en$</t>
+  </si>
+  <si>
+    <t>error message, must be alphanumeric values</t>
+  </si>
+  <si>
     <t>Accept new account creation</t>
   </si>
   <si>
-    <t>create with non-numerical values</t>
+    <t>R19T1</t>
+  </si>
+  <si>
+    <t>accept account creation session</t>
+  </si>
+  <si>
+    <t>accepting a valid account number and name</t>
+  </si>
+  <si>
+    <t>login, agent, createacct, 1000329, Acc123, logout</t>
+  </si>
+  <si>
+    <t>transaction summary file w/ new transactions</t>
+  </si>
+  <si>
+    <t>R20T1</t>
+  </si>
+  <si>
+    <t>delete account w/ non-numerical account</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, qu3en$</t>
+  </si>
+  <si>
+    <t>R20T2</t>
+  </si>
+  <si>
+    <t>delete account that begins with 0</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 0100329</t>
+  </si>
+  <si>
+    <t>R20T3</t>
+  </si>
+  <si>
+    <t>delete account w/ invalid account digits</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 100329</t>
+  </si>
+  <si>
+    <t>R20T4</t>
+  </si>
+  <si>
+    <t>delete invalid account case</t>
+  </si>
+  <si>
+    <t>delete account that doesn't exist</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 1000123</t>
+  </si>
+  <si>
+    <t>R20T5</t>
+  </si>
+  <si>
+    <t>delete valid account number</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 1000329</t>
+  </si>
+  <si>
+    <t>prompt user to enter  Account Name</t>
+  </si>
+  <si>
+    <t>R21T1</t>
+  </si>
+  <si>
+    <t>Low Character Range Test</t>
+  </si>
+  <si>
+    <t>delete account below 3 characters</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 1000329, my</t>
+  </si>
+  <si>
+    <t>R21T2</t>
+  </si>
+  <si>
+    <t>Acceptable Character Range Test</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 1000329, Acc123</t>
+  </si>
+  <si>
+    <t>R21T3</t>
+  </si>
+  <si>
+    <t>High Character Range Test</t>
+  </si>
+  <si>
+    <t>delete account w/ valid name</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 1000329, myAccountNameIsWayTooLong123456789</t>
+  </si>
+  <si>
+    <t>R21T4</t>
+  </si>
+  <si>
+    <t>deny non-alphanumeric symbols</t>
+  </si>
+  <si>
+    <t>login, agent, deleteacct, 1000329, qu3en$</t>
   </si>
   <si>
     <t>Accept account deletion</t>
   </si>
   <si>
-    <t>transaction summary file w/ new transactions</t>
-  </si>
-  <si>
-    <t>delete account w/ non-numerical account</t>
-  </si>
-  <si>
-    <t>delete account that begins with 0</t>
-  </si>
-  <si>
-    <t>delete account w/ invalid account digits</t>
-  </si>
-  <si>
-    <t>delete valid account number</t>
-  </si>
-  <si>
-    <t>delete account below 3 characters</t>
-  </si>
-  <si>
-    <t>delete account w/ valid name</t>
-  </si>
-  <si>
-    <t>only accept 7 digit account number after transfer</t>
-  </si>
-  <si>
-    <t>aceppting a valid transfer transaction session</t>
-  </si>
-  <si>
-    <t>accept transfer session</t>
-  </si>
-  <si>
-    <t>accept valid transfer transaction session</t>
-  </si>
-  <si>
-    <t>transfer valid amount case</t>
-  </si>
-  <si>
-    <t>transfer amount above 8</t>
-  </si>
-  <si>
-    <t>transfer amount below 3</t>
-  </si>
-  <si>
-    <t>prompt user to enter amount to transfer in cents</t>
-  </si>
-  <si>
-    <t>create with invalid account digits</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,0100327</t>
-  </si>
-  <si>
-    <t>login,atm,deposit, qu3en$</t>
-  </si>
-  <si>
-    <t>login,atm,deposit, 100327</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,1000327</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,1000327,que3n$</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,1000327,98</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,1000327,987654321</t>
-  </si>
-  <si>
-    <t>login,atm,,deposit,1000327,101</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,1000327,101,logout</t>
-  </si>
-  <si>
-    <t>only deposit monetary amounts between 3 to 8 digits after valid account number</t>
-  </si>
-  <si>
-    <t>login,atm,deposit,1000427</t>
-  </si>
-  <si>
-    <t>deposit non-numerical amount</t>
-  </si>
-  <si>
-    <t>deposit account that begins with 0</t>
-  </si>
-  <si>
-    <t>create with valid account case</t>
-  </si>
-  <si>
-    <t>delete invalid account case</t>
-  </si>
-  <si>
-    <t>create using existing account number</t>
-  </si>
-  <si>
-    <t>create with account number beigns with 0</t>
+    <t>R22T1</t>
   </si>
   <si>
     <t>Accept delete account session</t>
   </si>
   <si>
-    <t>transfer non-numerical account1</t>
-  </si>
-  <si>
-    <t>deny any account number that already exists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deny non-numeric inputs </t>
-  </si>
-  <si>
-    <t>transfer account1 that begins with 0</t>
-  </si>
-  <si>
-    <t>transfer invalid account1 digits</t>
-  </si>
-  <si>
-    <t>transfer invalid account1 case</t>
-  </si>
-  <si>
-    <t>transfer valid account1 case</t>
-  </si>
-  <si>
-    <t>transaction summary file w/ new transaction</t>
-  </si>
-  <si>
-    <t>only accept 7 digit account number after first account successfully inputted</t>
-  </si>
-  <si>
-    <t>transfer non-numerical account2</t>
-  </si>
-  <si>
-    <t>error message, account already exists</t>
-  </si>
-  <si>
-    <t>Test values from 0 to 2 characters</t>
-  </si>
-  <si>
-    <t>Test values from 3 to 30 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test values over 30 characters </t>
-  </si>
-  <si>
-    <t>only transfer monetary amounts between 3 to 8 digits after first 2 accounts are successfully inputted</t>
-  </si>
-  <si>
-    <t>Illegal Values test</t>
-  </si>
-  <si>
-    <t>Deny non-alphanumeric symbols</t>
-  </si>
-  <si>
-    <t>transfer account2 that begins with 0</t>
-  </si>
-  <si>
-    <t>transfer invalid account2 digits</t>
-  </si>
-  <si>
-    <t>transfer invalid account2 case</t>
-  </si>
-  <si>
-    <t>transfer valid account2 case</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, qu3en$</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, qu3en$</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 0100327</t>
-  </si>
-  <si>
-    <t>withdraw, account that begins with 0</t>
-  </si>
-  <si>
-    <t>withdraw, non-numerical account</t>
-  </si>
-  <si>
-    <t>only accept 7 digit account number after withdraw,</t>
-  </si>
-  <si>
-    <t>aceppting a valid withdraw, transaction session</t>
-  </si>
-  <si>
-    <t>accept withdraw, session</t>
-  </si>
-  <si>
-    <t>accept valid withdraw, transaction session</t>
-  </si>
-  <si>
-    <t>withdraw, valid amount case</t>
-  </si>
-  <si>
-    <t>withdraw, amount above 8</t>
-  </si>
-  <si>
-    <t>withdraw, amount below 3</t>
-  </si>
-  <si>
-    <t>withdraw, non-numerical amount</t>
-  </si>
-  <si>
-    <t>only withdraw, monetary amounts between 3 to 8 digits after valid account number</t>
-  </si>
-  <si>
-    <t>prompt user to enter amount to withdraw, in cents</t>
-  </si>
-  <si>
-    <t>withdraw, valid account case</t>
-  </si>
-  <si>
-    <t>withdraw, invalid account case</t>
-  </si>
-  <si>
-    <t>withdraw, invalid account digits</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 100327</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000328, 101, logout</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000328, 101</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000328, 987654321</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000328, 98</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000328, que3n$</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000328</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 1000427</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 100327</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327, 0100327</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000327</t>
-  </si>
-  <si>
-    <t>login, atm, transfer, 1000427</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, qu3en$</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 0100327</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 100327</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000427</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000327</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000327, que3n$</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000327, 98</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000327, 987654321</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000327, 101, logout</t>
-  </si>
-  <si>
-    <t>login, atm, withdraw, 1000327, 101</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, qu3en$</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000327</t>
-  </si>
-  <si>
-    <t>please login!</t>
-  </si>
-  <si>
-    <t>error message, can only enter alphanumeric values 3 to 30 characters</t>
-  </si>
-  <si>
-    <t>prompt user to enter desired Account Name</t>
-  </si>
-  <si>
-    <t>accept account creation session</t>
-  </si>
-  <si>
-    <t>accepting a valid account number and name</t>
-  </si>
-  <si>
-    <t>Low Character Range Test</t>
-  </si>
-  <si>
-    <t>Acceptable Character Range Test</t>
-  </si>
-  <si>
-    <t>High Character Range Test</t>
-  </si>
-  <si>
-    <t>Low Character Range test</t>
-  </si>
-  <si>
-    <t>Acceptable Character Range test</t>
-  </si>
-  <si>
-    <t>High Character Range test</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, qu3en$</t>
-  </si>
-  <si>
-    <t>deny non-alphanumeric symbols</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000329, myAccountNameIsWayTooLong123456789</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000329, Acc123</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000329, my</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000329</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000329, Acc123, logout</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 1000329, qu3en$</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 0100329</t>
-  </si>
-  <si>
-    <t>login, agent, createacct, 100329</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 1000329</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 100329</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 0100329</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 1000329, my</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 1000329, Acc123</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 1000329, myAccountNameIsWayTooLong123456789</t>
-  </si>
-  <si>
     <t>login, agent, deleteacct, 1000329, Acc123, logout</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 1000329, qu3en$</t>
-  </si>
-  <si>
-    <t>prompt user to enter account number</t>
-  </si>
-  <si>
-    <t>login, agent, deleteacct, 1000123</t>
-  </si>
-  <si>
-    <t>prompt use to enter account number</t>
-  </si>
-  <si>
-    <t>none or prompt user to login</t>
-  </si>
-  <si>
-    <t>prompt user to enter  Account Name</t>
-  </si>
-  <si>
-    <t>delete account that doesn't exist</t>
-  </si>
-  <si>
-    <t>R7T1</t>
-  </si>
-  <si>
-    <t>R7T2</t>
-  </si>
-  <si>
-    <t>R7T3</t>
-  </si>
-  <si>
-    <t>R7T4</t>
-  </si>
-  <si>
-    <t>R7T5</t>
-  </si>
-  <si>
-    <t>R8T1</t>
-  </si>
-  <si>
-    <t>R8T2</t>
-  </si>
-  <si>
-    <t>R8T3</t>
-  </si>
-  <si>
-    <t>R8T4</t>
-  </si>
-  <si>
-    <t>R9T1</t>
-  </si>
-  <si>
-    <t>R10T1</t>
-  </si>
-  <si>
-    <t>R10T2</t>
-  </si>
-  <si>
-    <t>R10T3</t>
-  </si>
-  <si>
-    <t>R10T4</t>
-  </si>
-  <si>
-    <t>R10T5</t>
-  </si>
-  <si>
-    <t>R11T1</t>
-  </si>
-  <si>
-    <t>R11T2</t>
-  </si>
-  <si>
-    <t>R11T3</t>
-  </si>
-  <si>
-    <t>R11T4</t>
-  </si>
-  <si>
-    <t>R12T1</t>
-  </si>
-  <si>
-    <t>R13T1</t>
-  </si>
-  <si>
-    <t>R13T2</t>
-  </si>
-  <si>
-    <t>R13T3</t>
-  </si>
-  <si>
-    <t>R13T4</t>
-  </si>
-  <si>
-    <t>R13T5</t>
-  </si>
-  <si>
-    <t>R14T1</t>
-  </si>
-  <si>
-    <t>R14T2</t>
-  </si>
-  <si>
-    <t>R14T3</t>
-  </si>
-  <si>
-    <t>R14T4</t>
-  </si>
-  <si>
-    <t>R14T5</t>
-  </si>
-  <si>
-    <t>R15T1</t>
-  </si>
-  <si>
-    <t>R15T2</t>
-  </si>
-  <si>
-    <t>R15T3</t>
-  </si>
-  <si>
-    <t>R15T4</t>
-  </si>
-  <si>
-    <t>R16T1</t>
-  </si>
-  <si>
-    <t>R17T1</t>
-  </si>
-  <si>
-    <t>R17T2</t>
-  </si>
-  <si>
-    <t>R17T3</t>
-  </si>
-  <si>
-    <t>R17T4</t>
-  </si>
-  <si>
-    <t>R17T5</t>
-  </si>
-  <si>
-    <t>R18T1</t>
-  </si>
-  <si>
-    <t>R18T2</t>
-  </si>
-  <si>
-    <t>R18T3</t>
-  </si>
-  <si>
-    <t>R18T4</t>
-  </si>
-  <si>
-    <t>R19T1</t>
-  </si>
-  <si>
-    <t>R20T1</t>
-  </si>
-  <si>
-    <t>R20T2</t>
-  </si>
-  <si>
-    <t>R20T3</t>
-  </si>
-  <si>
-    <t>R20T4</t>
-  </si>
-  <si>
-    <t>R20T5</t>
-  </si>
-  <si>
-    <t>R21T1</t>
-  </si>
-  <si>
-    <t>R21T2</t>
-  </si>
-  <si>
-    <t>R21T3</t>
-  </si>
-  <si>
-    <t>R21T4</t>
-  </si>
-  <si>
-    <t>R22T1</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>transaction summary file w/ new transation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2479,613 +2482,613 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419CD781-0520-4144-A52A-74605508ACD9}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30.75" thickTop="1">
       <c r="A2" s="84" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="85"/>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="85"/>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="85"/>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="85"/>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="85"/>
       <c r="B7" s="20" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="86"/>
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.6" customHeight="1">
       <c r="A9" s="81" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30.6" customHeight="1" thickBot="1">
       <c r="A10" s="91"/>
       <c r="B10" s="33" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34.700000000000003" customHeight="1">
       <c r="A11" s="87" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34.700000000000003" customHeight="1" thickBot="1">
       <c r="A12" s="88"/>
       <c r="B12" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="35.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="35.85" customHeight="1">
       <c r="A13" s="81" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="32.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="32.85" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.95" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45">
       <c r="A16" s="82"/>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45.75" thickBot="1">
       <c r="A17" s="83"/>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="29.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29.85" customHeight="1">
       <c r="A18" s="81" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33.950000000000003" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="12" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" s="82"/>
       <c r="B20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="G20" s="13" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="82"/>
       <c r="B21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>266</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30.75" thickBot="1">
       <c r="A22" s="83"/>
       <c r="B22" s="10" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="C23" s="13" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30.75" thickBot="1">
       <c r="A24" s="90"/>
       <c r="B24" s="32" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.350000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A13:A17"/>
@@ -3109,284 +3112,284 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="44.25" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
     <col min="8" max="8" width="23" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="22.7" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="44.25" customHeight="1" thickTop="1">
       <c r="A2" s="92" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B2" s="71" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D2" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="61" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="44.25" customHeight="1">
       <c r="A3" s="93"/>
       <c r="B3" s="70" t="s">
-        <v>273</v>
+        <v>118</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="P3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="44.25" customHeight="1">
       <c r="A4" s="93"/>
       <c r="B4" s="70" t="s">
-        <v>274</v>
+        <v>123</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H4" s="63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="44.25" customHeight="1">
       <c r="A5" s="93"/>
       <c r="B5" s="70" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="44.25" customHeight="1" thickBot="1">
       <c r="A6" s="94"/>
       <c r="B6" s="76" t="s">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="40.65" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="40.700000000000003" customHeight="1">
       <c r="A7" s="95" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>277</v>
+        <v>139</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="44.25" customHeight="1">
       <c r="A8" s="93"/>
       <c r="B8" s="70" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E8" s="66" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H8" s="46" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="44.25" customHeight="1">
       <c r="A9" s="93"/>
       <c r="B9" s="70" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H9" s="46" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="44.25" customHeight="1" thickBot="1">
       <c r="A10" s="94"/>
       <c r="B10" s="76" t="s">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E10" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="44.25" customHeight="1" thickBot="1">
+      <c r="A11" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="64" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3406,286 +3409,286 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6640625" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="49.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="49.5" customHeight="1" thickTop="1">
       <c r="A2" s="92" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="D2" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="62" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
       <c r="A3" s="93"/>
       <c r="B3" s="70" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="49.5" customHeight="1">
       <c r="A4" s="93"/>
       <c r="B4" s="70" t="s">
-        <v>284</v>
+        <v>171</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="49.5" customHeight="1">
       <c r="A5" s="93"/>
       <c r="B5" s="70" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H5" s="62" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="A6" s="94"/>
       <c r="B6" s="38" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="A7" s="95" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>287</v>
+        <v>182</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="A8" s="93"/>
       <c r="B8" s="70" t="s">
-        <v>288</v>
+        <v>185</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="49.5" customHeight="1">
       <c r="A9" s="93"/>
       <c r="B9" s="70" t="s">
-        <v>289</v>
+        <v>188</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="A10" s="94"/>
       <c r="B10" s="38" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="55" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="49.5" customHeight="1" thickBot="1">
       <c r="A11" s="73" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="78" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3701,413 +3704,413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872E64FD-BD25-4B2A-9B8F-61F90350AB8C}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.88671875" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="44.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" thickTop="1">
       <c r="A2" s="92" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E2" s="68" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" s="50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H2" s="60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="44.25" customHeight="1">
       <c r="A3" s="96"/>
       <c r="B3" s="70" t="s">
-        <v>293</v>
+        <v>204</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="44.25" customHeight="1">
       <c r="A4" s="96"/>
       <c r="B4" s="70" t="s">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="44.25" customHeight="1">
       <c r="A5" s="96"/>
       <c r="B5" s="70" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A6" s="97"/>
       <c r="B6" s="76" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F6" s="48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A7" s="95" t="s">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A8" s="93"/>
       <c r="B8" s="70" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A9" s="93"/>
       <c r="B9" s="70" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="44.25" customHeight="1">
       <c r="A10" s="93"/>
       <c r="B10" s="70" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A11" s="94"/>
       <c r="B11" s="76" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="44.25" customHeight="1">
       <c r="A12" s="98" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>302</v>
+        <v>234</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="H12" s="59" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="44.25" customHeight="1">
       <c r="A13" s="99"/>
       <c r="B13" s="70" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H13" s="46" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="44.25" customHeight="1">
       <c r="A14" s="99"/>
       <c r="B14" s="70" t="s">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
       <c r="A15" s="100"/>
       <c r="B15" s="38" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H15" s="56" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="35.85" customHeight="1" thickBot="1">
       <c r="A16" s="73" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="B16" s="72" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4124,295 +4127,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD19FBA-1BCC-4443-A1FD-EE55B52603F3}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="19.350000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.45" customHeight="1" thickTop="1">
       <c r="A2" s="101" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="74" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="102"/>
       <c r="B3" s="6" t="s">
-        <v>308</v>
+        <v>255</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="102"/>
       <c r="B4" s="6" t="s">
-        <v>309</v>
+        <v>258</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="102"/>
       <c r="B5" s="6" t="s">
-        <v>310</v>
+        <v>261</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="39" customFormat="1" ht="35.1" customHeight="1" thickBot="1">
       <c r="A6" s="102"/>
       <c r="B6" s="32" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="77" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="I6" s="54"/>
     </row>
-    <row r="7" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="57" customHeight="1">
       <c r="A7" s="81" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30.6" customHeight="1">
       <c r="A8" s="102"/>
       <c r="B8" s="6" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="62.25" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="20" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>187</v>
+        <v>282</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="62.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="62.85" customHeight="1">
       <c r="A10" s="91"/>
       <c r="B10" s="36" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>189</v>
+        <v>285</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1">
       <c r="A11" s="31" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -4422,7 +4425,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="31.5" customHeight="1">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -4431,14 +4434,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="D15" s="39"/>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="D16" s="39"/>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -4459,298 +4462,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18409AD2-D17F-4D42-AA36-D18A7E9DA399}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.85"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="16384" max="16384" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="16384" max="16384" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="29.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29.85" customHeight="1" thickTop="1">
       <c r="A2" s="101" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="82"/>
       <c r="B3" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>142</v>
+        <v>299</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="82"/>
       <c r="B4" s="6" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="82"/>
       <c r="B5" s="6" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>170</v>
+        <v>305</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30.75" thickBot="1">
       <c r="A6" s="83"/>
       <c r="B6" s="32" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="44.25" customHeight="1">
+      <c r="A7" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
-        <v>136</v>
-      </c>
       <c r="B7" s="51" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="34.5" customHeight="1">
       <c r="A8" s="102"/>
       <c r="B8" s="51" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="59.45" customHeight="1">
       <c r="A9" s="102"/>
       <c r="B9" s="20" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="45.75" customHeight="1">
       <c r="A10" s="91"/>
       <c r="B10" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>265</v>
-      </c>
       <c r="F10" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="35.85" customHeight="1" thickBot="1">
+      <c r="A11" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="35.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>326</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>173</v>
+        <v>328</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="39"/>
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
@@ -4760,7 +4763,7 @@
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -4770,7 +4773,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -4780,7 +4783,7 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -4790,7 +4793,7 @@
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -4800,7 +4803,7 @@
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -4810,7 +4813,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -4820,7 +4823,7 @@
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -4830,7 +4833,7 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -4840,7 +4843,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -4850,7 +4853,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -4860,7 +4863,7 @@
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -4870,7 +4873,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
